--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1553199.336923265</v>
+        <v>1550186.566431439</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11656731.15964738</v>
+        <v>11656731.15964739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673417</v>
+        <v>603248.4937673424</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.437811905906679</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15.11564219756826</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="G2" t="n">
-        <v>15.11564219756826</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>13.3138576476181</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.11564219756826</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>13.3138576476181</v>
       </c>
       <c r="G3" t="n">
-        <v>15.11564219756826</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="H3" t="n">
-        <v>15.11564219756826</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="I3" t="n">
-        <v>13.31385764761811</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>15.11564219756826</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11564219756826</v>
+        <v>13.49724919947433</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="S4" t="n">
-        <v>13.49724919947437</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>15.11564219756826</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.11564219756824</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.31385764761811</v>
+        <v>13.3138576476181</v>
       </c>
       <c r="G5" t="n">
         <v>15.11564219756824</v>
@@ -944,7 +944,7 @@
         <v>15.11564219756824</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.11564219756824</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>15.11564219756824</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>13.3138576476181</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>13.31385764761811</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.7948689680932826</v>
       </c>
       <c r="J7" t="n">
         <v>15.11564219756824</v>
       </c>
       <c r="K7" t="n">
-        <v>12.51898867952525</v>
+        <v>12.51898867952481</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>15.11564219756824</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.7948689680928606</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G8" t="n">
-        <v>13.09783323005805</v>
+        <v>28.33592091243828</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368145</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>133.8333590606433</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>87.88884955370308</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.7788117555066</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.205019738122445</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553089</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845843</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.5255871663196</v>
+        <v>74.58437257147905</v>
       </c>
       <c r="W10" t="n">
-        <v>177.3058108448248</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3498268763623</v>
+        <v>90.56226930505957</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.7508060364355</v>
       </c>
       <c r="I11" t="n">
-        <v>19.52880216911828</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.08019666228556</v>
+        <v>96.1556184052107</v>
       </c>
       <c r="T11" t="n">
         <v>201.4144832429035</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.6934763436069</v>
       </c>
       <c r="H12" t="n">
-        <v>86.6416289524286</v>
+        <v>86.64162895242862</v>
       </c>
       <c r="I12" t="n">
-        <v>8.281939500484683</v>
+        <v>8.281939500484768</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>35.5368965076564</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7692741559437</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.4741935250782</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2983355531412</v>
       </c>
       <c r="T13" t="n">
         <v>218.4528490175352</v>
       </c>
       <c r="U13" t="n">
-        <v>12.81635014106024</v>
+        <v>286.1978454363537</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.460732332846</v>
+        <v>277.4607323328427</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.6684815247533</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440899</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>126.2138754796354</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672539</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>148.9055307001832</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>34.4725479786735</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>284.171906343416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>314.9813656337162</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001842</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.1058834159892</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>19.12210510147827</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>80.11763046889877</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703267</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.42659968729247</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>59.44001103519326</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>76.17049831699812</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>94.64226186542889</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>83.06560892428134</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>243.137390822263</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.05806357631667</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>99.98993057842257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.1474991249032</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.5740289795511</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>107.3363007608866</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695612</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.19424333818387</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="C2" t="n">
-        <v>45.19424333818387</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="D2" t="n">
-        <v>38.69140302918723</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="E2" t="n">
-        <v>23.42307757709808</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="F2" t="n">
-        <v>16.47757682789461</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="G2" t="n">
-        <v>1.209251375805461</v>
+        <v>14.65759243400556</v>
       </c>
       <c r="H2" t="n">
-        <v>1.209251375805461</v>
+        <v>14.65759243400556</v>
       </c>
       <c r="I2" t="n">
-        <v>1.209251375805461</v>
+        <v>1.209251375805459</v>
       </c>
       <c r="J2" t="n">
-        <v>1.209251375805461</v>
+        <v>1.209251375805459</v>
       </c>
       <c r="K2" t="n">
-        <v>16.17373715139803</v>
+        <v>1.209251375805459</v>
       </c>
       <c r="L2" t="n">
-        <v>31.13822292699061</v>
+        <v>1.209251375805459</v>
       </c>
       <c r="M2" t="n">
-        <v>46.10270870258318</v>
+        <v>16.17373715139801</v>
       </c>
       <c r="N2" t="n">
-        <v>60.46256879027302</v>
+        <v>30.53359723908784</v>
       </c>
       <c r="O2" t="n">
-        <v>60.46256879027302</v>
+        <v>45.49808301468039</v>
       </c>
       <c r="P2" t="n">
-        <v>60.46256879027302</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.46256879027302</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="R2" t="n">
-        <v>45.19424333818387</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="S2" t="n">
-        <v>45.19424333818387</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="T2" t="n">
-        <v>45.19424333818387</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="U2" t="n">
-        <v>45.19424333818387</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="V2" t="n">
-        <v>45.19424333818387</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="W2" t="n">
-        <v>45.19424333818387</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="X2" t="n">
-        <v>45.19424333818387</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.19424333818387</v>
+        <v>60.46256879027295</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.19424333818387</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="C3" t="n">
-        <v>45.19424333818387</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="D3" t="n">
-        <v>45.19424333818387</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="E3" t="n">
-        <v>45.19424333818387</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="F3" t="n">
-        <v>45.19424333818387</v>
+        <v>31.74590227998372</v>
       </c>
       <c r="G3" t="n">
-        <v>29.92591788609472</v>
+        <v>16.47757682789459</v>
       </c>
       <c r="H3" t="n">
-        <v>14.65759243400557</v>
+        <v>1.209251375805459</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209251375805461</v>
+        <v>1.209251375805459</v>
       </c>
       <c r="J3" t="n">
-        <v>1.209251375805461</v>
+        <v>7.515871692802371</v>
       </c>
       <c r="K3" t="n">
-        <v>1.209251375805461</v>
+        <v>22.48035746839492</v>
       </c>
       <c r="L3" t="n">
-        <v>1.209251375805461</v>
+        <v>22.48035746839492</v>
       </c>
       <c r="M3" t="n">
-        <v>1.209251375805461</v>
+        <v>30.53359723908784</v>
       </c>
       <c r="N3" t="n">
-        <v>15.56911146349531</v>
+        <v>45.49808301468039</v>
       </c>
       <c r="O3" t="n">
-        <v>30.53359723908788</v>
+        <v>45.49808301468039</v>
       </c>
       <c r="P3" t="n">
-        <v>45.49808301468045</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.46256879027302</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="R3" t="n">
-        <v>60.46256879027302</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="S3" t="n">
-        <v>60.46256879027302</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="T3" t="n">
-        <v>60.46256879027302</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="U3" t="n">
-        <v>45.19424333818387</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="V3" t="n">
-        <v>45.19424333818387</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="W3" t="n">
-        <v>45.19424333818387</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="X3" t="n">
-        <v>45.19424333818387</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.19424333818387</v>
+        <v>45.19424333818382</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="C4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="D4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="E4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="F4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="G4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="H4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="I4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="J4" t="n">
         <v>16.29233283612062</v>
       </c>
       <c r="K4" t="n">
-        <v>1.209251375805461</v>
+        <v>1.209251375805459</v>
       </c>
       <c r="L4" t="n">
-        <v>16.17373715139803</v>
+        <v>16.17373715139801</v>
       </c>
       <c r="M4" t="n">
-        <v>31.13822292699061</v>
+        <v>25.66612481141426</v>
       </c>
       <c r="N4" t="n">
-        <v>45.49808301468045</v>
+        <v>40.63061058700681</v>
       </c>
       <c r="O4" t="n">
-        <v>60.46256879027302</v>
+        <v>55.59509636259936</v>
       </c>
       <c r="P4" t="n">
-        <v>60.46256879027302</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="Q4" t="n">
-        <v>60.46256879027302</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="R4" t="n">
-        <v>60.46256879027302</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="S4" t="n">
-        <v>46.82898374029892</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="T4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="U4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="V4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="W4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="X4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.56065828820977</v>
+        <v>29.92591788609469</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.19424333818384</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="C5" t="n">
-        <v>45.19424333818384</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="D5" t="n">
-        <v>29.9259178860947</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="E5" t="n">
-        <v>29.9259178860947</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="F5" t="n">
         <v>16.47757682789459</v>
@@ -4565,52 +4565,52 @@
         <v>1.209251375805459</v>
       </c>
       <c r="J5" t="n">
-        <v>1.209251375805459</v>
+        <v>5.100141311982081</v>
       </c>
       <c r="K5" t="n">
-        <v>1.209251375805459</v>
+        <v>20.06462708757464</v>
       </c>
       <c r="L5" t="n">
-        <v>1.209251375805459</v>
+        <v>35.02911286316719</v>
       </c>
       <c r="M5" t="n">
-        <v>15.5691114634953</v>
+        <v>49.99359863875974</v>
       </c>
       <c r="N5" t="n">
-        <v>30.53359723908786</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="O5" t="n">
-        <v>45.49808301468042</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="P5" t="n">
-        <v>60.46256879027298</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="Q5" t="n">
-        <v>60.46256879027298</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="R5" t="n">
-        <v>45.19424333818384</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="S5" t="n">
-        <v>45.19424333818384</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="T5" t="n">
-        <v>45.19424333818384</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="U5" t="n">
-        <v>45.19424333818384</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="V5" t="n">
-        <v>45.19424333818384</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="W5" t="n">
-        <v>45.19424333818384</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="X5" t="n">
-        <v>45.19424333818384</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="Y5" t="n">
-        <v>45.19424333818384</v>
+        <v>29.92591788609469</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.74590227998373</v>
+        <v>16.47757682789459</v>
       </c>
       <c r="C6" t="n">
-        <v>31.74590227998373</v>
+        <v>16.47757682789459</v>
       </c>
       <c r="D6" t="n">
-        <v>31.74590227998373</v>
+        <v>16.47757682789459</v>
       </c>
       <c r="E6" t="n">
-        <v>31.74590227998373</v>
+        <v>16.47757682789459</v>
       </c>
       <c r="F6" t="n">
-        <v>31.74590227998373</v>
+        <v>16.47757682789459</v>
       </c>
       <c r="G6" t="n">
         <v>16.47757682789459</v>
@@ -4644,52 +4644,52 @@
         <v>1.209251375805459</v>
       </c>
       <c r="J6" t="n">
-        <v>9.833259083524208</v>
+        <v>1.209251375805459</v>
       </c>
       <c r="K6" t="n">
-        <v>24.79774485911677</v>
+        <v>1.209251375805459</v>
       </c>
       <c r="L6" t="n">
-        <v>24.79774485911677</v>
+        <v>1.209251375805459</v>
       </c>
       <c r="M6" t="n">
-        <v>30.53359723908786</v>
+        <v>16.17373715139801</v>
       </c>
       <c r="N6" t="n">
-        <v>45.49808301468042</v>
+        <v>31.13822292699057</v>
       </c>
       <c r="O6" t="n">
-        <v>45.49808301468042</v>
+        <v>46.10270870258312</v>
       </c>
       <c r="P6" t="n">
-        <v>60.46256879027298</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.46256879027298</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="R6" t="n">
-        <v>60.46256879027298</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="S6" t="n">
-        <v>60.46256879027298</v>
+        <v>31.74590227998372</v>
       </c>
       <c r="T6" t="n">
-        <v>60.46256879027298</v>
+        <v>31.74590227998372</v>
       </c>
       <c r="U6" t="n">
-        <v>45.19424333818384</v>
+        <v>16.47757682789459</v>
       </c>
       <c r="V6" t="n">
-        <v>45.19424333818384</v>
+        <v>16.47757682789459</v>
       </c>
       <c r="W6" t="n">
-        <v>45.19424333818384</v>
+        <v>16.47757682789459</v>
       </c>
       <c r="X6" t="n">
-        <v>31.74590227998373</v>
+        <v>16.47757682789459</v>
       </c>
       <c r="Y6" t="n">
-        <v>31.74590227998373</v>
+        <v>16.47757682789459</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.12301993852616</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="C7" t="n">
-        <v>29.12301993852616</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="D7" t="n">
-        <v>29.12301993852616</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="E7" t="n">
-        <v>29.12301993852616</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="F7" t="n">
-        <v>29.12301993852616</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="G7" t="n">
-        <v>29.12301993852616</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="H7" t="n">
-        <v>29.12301993852616</v>
+        <v>29.92591788609469</v>
       </c>
       <c r="I7" t="n">
-        <v>29.12301993852616</v>
+        <v>29.12301993852572</v>
       </c>
       <c r="J7" t="n">
-        <v>13.85469448643702</v>
+        <v>13.85469448643658</v>
       </c>
       <c r="K7" t="n">
         <v>1.209251375805459</v>
       </c>
       <c r="L7" t="n">
-        <v>16.17373715139802</v>
+        <v>8.214551647232277</v>
       </c>
       <c r="M7" t="n">
-        <v>23.17903742282529</v>
+        <v>23.17903742282483</v>
       </c>
       <c r="N7" t="n">
-        <v>38.14352319841785</v>
+        <v>38.14352319841738</v>
       </c>
       <c r="O7" t="n">
-        <v>53.10800897401041</v>
+        <v>53.10800897400993</v>
       </c>
       <c r="P7" t="n">
-        <v>60.46256879027298</v>
+        <v>60.46256879027295</v>
       </c>
       <c r="Q7" t="n">
-        <v>45.19424333818384</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="R7" t="n">
-        <v>45.19424333818384</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="S7" t="n">
-        <v>45.19424333818384</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="T7" t="n">
-        <v>29.9259178860947</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="U7" t="n">
-        <v>29.9259178860947</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="V7" t="n">
-        <v>29.9259178860947</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="W7" t="n">
-        <v>29.9259178860947</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="X7" t="n">
-        <v>29.12301993852616</v>
+        <v>45.19424333818382</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.12301993852616</v>
+        <v>29.92591788609469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.17768229832525</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="C8" t="n">
-        <v>35.17768229832525</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="D8" t="n">
-        <v>35.17768229832525</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="E8" t="n">
-        <v>35.17768229832525</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="F8" t="n">
-        <v>28.23218154912178</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058927</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L8" t="n">
-        <v>191.874309407918</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644748</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N8" t="n">
-        <v>509.495204112382</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201457</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201457</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201457</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201457</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="V8" t="n">
-        <v>603.4370373477788</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="W8" t="n">
-        <v>414.0172523312942</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="X8" t="n">
-        <v>224.5974673148098</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.17768229832525</v>
+        <v>738.6222485201466</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>370.0455869776404</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="C9" t="n">
-        <v>370.0455869776404</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="D9" t="n">
-        <v>370.0455869776404</v>
+        <v>471.9059479379835</v>
       </c>
       <c r="E9" t="n">
-        <v>210.8081319721848</v>
+        <v>312.668492932528</v>
       </c>
       <c r="F9" t="n">
-        <v>64.27357399906981</v>
+        <v>166.133934959413</v>
       </c>
       <c r="G9" t="n">
-        <v>64.27357399906981</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H9" t="n">
         <v>64.27357399906981</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024199</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140242</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476339</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U9" t="n">
-        <v>748.8851570106094</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V9" t="n">
-        <v>748.8851570106094</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W9" t="n">
-        <v>748.8851570106094</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X9" t="n">
-        <v>559.4653719941249</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y9" t="n">
-        <v>370.0455869776404</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.789149320521</v>
+        <v>481.9679628959414</v>
       </c>
       <c r="C10" t="n">
-        <v>188.789149320521</v>
+        <v>313.0317799680345</v>
       </c>
       <c r="D10" t="n">
-        <v>38.67250990818525</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E10" t="n">
-        <v>38.67250990818525</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>38.67250990818525</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>38.67250990818525</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>38.67250990818525</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818525</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
         <v>106.7151088594233</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745582</v>
+        <v>261.7447676371618</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5529562639635</v>
+        <v>447.3950989318184</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242508</v>
+        <v>633.0454302264751</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608009</v>
+        <v>634.3723839608016</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846261</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846261</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846261</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="T10" t="n">
-        <v>746.7254979846261</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="U10" t="n">
-        <v>746.7254979846261</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="V10" t="n">
-        <v>557.3057129681416</v>
+        <v>671.387747912426</v>
       </c>
       <c r="W10" t="n">
-        <v>378.2089343370055</v>
+        <v>671.387747912426</v>
       </c>
       <c r="X10" t="n">
-        <v>188.789149320521</v>
+        <v>481.9679628959414</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.789149320521</v>
+        <v>481.9679628959414</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2038.681880437564</v>
+        <v>1987.605563564852</v>
       </c>
       <c r="C11" t="n">
-        <v>1669.719363497152</v>
+        <v>1618.64304662444</v>
       </c>
       <c r="D11" t="n">
-        <v>1311.453664890402</v>
+        <v>1260.37734801769</v>
       </c>
       <c r="E11" t="n">
-        <v>925.6654122921575</v>
+        <v>874.5890954194456</v>
       </c>
       <c r="F11" t="n">
-        <v>514.67950750255</v>
+        <v>463.603190629838</v>
       </c>
       <c r="G11" t="n">
-        <v>100.1847328799618</v>
+        <v>372.1261509277568</v>
       </c>
       <c r="H11" t="n">
-        <v>100.1847328799618</v>
+        <v>80.45867008287253</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45867008287263</v>
+        <v>80.45867008287253</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3916029357188</v>
+        <v>317.3916029357192</v>
       </c>
       <c r="K11" t="n">
         <v>723.231169001313</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.61279935288</v>
+        <v>1263.612799352879</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.560920956286</v>
+        <v>1896.560920956285</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.364613272957</v>
+        <v>2544.364613272955</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.732009130129</v>
+        <v>3142.732009130126</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.923736916298</v>
+        <v>3618.923736916295</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.351146395939</v>
+        <v>3928.351146395935</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.933504143631</v>
+        <v>4022.933504143627</v>
       </c>
       <c r="S11" t="n">
-        <v>3956.185830747383</v>
+        <v>3925.806616865636</v>
       </c>
       <c r="T11" t="n">
-        <v>3752.736857774753</v>
+        <v>3722.357643893006</v>
       </c>
       <c r="U11" t="n">
-        <v>3499.252595091183</v>
+        <v>3468.873381209436</v>
       </c>
       <c r="V11" t="n">
-        <v>3168.189707747612</v>
+        <v>3137.810493865865</v>
       </c>
       <c r="W11" t="n">
-        <v>2815.421052477498</v>
+        <v>3137.810493865865</v>
       </c>
       <c r="X11" t="n">
-        <v>2815.421052477498</v>
+        <v>2764.344735604785</v>
       </c>
       <c r="Y11" t="n">
-        <v>2425.281720501686</v>
+        <v>2374.205403628974</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.3410624595527</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82426553790766</v>
+        <v>88.82426553790765</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45867008287263</v>
+        <v>80.45867008287253</v>
       </c>
       <c r="J12" t="n">
-        <v>80.45867008287263</v>
+        <v>146.6940591002568</v>
       </c>
       <c r="K12" t="n">
-        <v>367.6398881596519</v>
+        <v>433.8752771770357</v>
       </c>
       <c r="L12" t="n">
-        <v>800.1130173825727</v>
+        <v>433.8752771770357</v>
       </c>
       <c r="M12" t="n">
-        <v>1324.1456289183</v>
+        <v>957.9078887127628</v>
       </c>
       <c r="N12" t="n">
-        <v>1876.456469289425</v>
+        <v>1510.218729083887</v>
       </c>
       <c r="O12" t="n">
-        <v>2359.493190349225</v>
+        <v>1993.255450143687</v>
       </c>
       <c r="P12" t="n">
-        <v>2557.912613640265</v>
+        <v>2361.60193782047</v>
       </c>
       <c r="Q12" t="n">
         <v>2557.912613640265</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1005.671571565057</v>
+        <v>688.1112208840912</v>
       </c>
       <c r="C13" t="n">
-        <v>836.7353886371499</v>
+        <v>519.1750379561843</v>
       </c>
       <c r="D13" t="n">
-        <v>686.6187492248141</v>
+        <v>519.1750379561843</v>
       </c>
       <c r="E13" t="n">
-        <v>538.7056556424211</v>
+        <v>371.2619443737912</v>
       </c>
       <c r="F13" t="n">
-        <v>391.8157081445108</v>
+        <v>224.3719968758808</v>
       </c>
       <c r="G13" t="n">
-        <v>224.3719968758809</v>
+        <v>224.3719968758808</v>
       </c>
       <c r="H13" t="n">
-        <v>80.45867008287263</v>
+        <v>80.45867008287253</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45867008287263</v>
+        <v>80.45867008287253</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5368940070048</v>
+        <v>143.5368940070046</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0306294926659</v>
+        <v>377.0306294926653</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3486564377641</v>
+        <v>731.3486564377632</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.316459892695</v>
+        <v>1115.316459892694</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.588983613559</v>
+        <v>1495.588983613558</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.815912646799</v>
+        <v>1830.815912646797</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.13978044739</v>
+        <v>2094.139780447388</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.01649721151</v>
+        <v>2193.016497211508</v>
       </c>
       <c r="R13" t="n">
-        <v>2193.01649721151</v>
+        <v>2193.016497211508</v>
       </c>
       <c r="S13" t="n">
-        <v>2193.01649721151</v>
+        <v>2005.846461299244</v>
       </c>
       <c r="T13" t="n">
-        <v>1972.357053759455</v>
+        <v>1785.187017847188</v>
       </c>
       <c r="U13" t="n">
-        <v>1959.411245536161</v>
+        <v>1496.098285083195</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.726757330274</v>
+        <v>1241.413796877308</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.309587293314</v>
+        <v>951.9966268403471</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.320036395296</v>
+        <v>724.0070759423297</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.320036395296</v>
+        <v>724.0070759423297</v>
       </c>
     </row>
     <row r="14">
@@ -5261,64 +5261,64 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708299</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.60923933393</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206858</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
         <v>2703.824308969966</v>
@@ -5343,31 +5343,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
         <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.814998036501</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O15" t="n">
         <v>2552.77562977024</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.4953365361202</v>
+        <v>1034.164739009915</v>
       </c>
       <c r="C16" t="n">
-        <v>782.5591536082134</v>
+        <v>929.4491011061236</v>
       </c>
       <c r="D16" t="n">
-        <v>632.4425141958777</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E16" t="n">
-        <v>484.5294206134845</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F16" t="n">
         <v>484.5294206134844</v>
@@ -5431,55 +5431,55 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861977</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693319</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410169</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410169</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149099</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.526801863481</v>
+        <v>2208.696992124549</v>
       </c>
       <c r="U16" t="n">
-        <v>1898.038038752738</v>
+        <v>2208.696992124549</v>
       </c>
       <c r="V16" t="n">
-        <v>1643.353550546851</v>
+        <v>1954.012503918662</v>
       </c>
       <c r="W16" t="n">
-        <v>1353.93638050989</v>
+        <v>1664.595333881702</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.93638050989</v>
+        <v>1436.605782983685</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.14380136636</v>
+        <v>1215.813203840155</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200316</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>328.4394675364381</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608051</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608043</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J17" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L17" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J18" t="n">
         <v>240.4596049779265</v>
@@ -5598,19 +5598,19 @@
         <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>1061.700680385037</v>
+        <v>733.6583989593863</v>
       </c>
       <c r="M18" t="n">
-        <v>1653.719034637164</v>
+        <v>733.6583989593863</v>
       </c>
       <c r="N18" t="n">
-        <v>2275.814998036501</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O18" t="n">
-        <v>2552.77562977024</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q18" t="n">
         <v>2552.77562977024</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>679.6040206802893</v>
+        <v>642.4084247491294</v>
       </c>
       <c r="C19" t="n">
-        <v>679.6040206802893</v>
+        <v>473.4722418212225</v>
       </c>
       <c r="D19" t="n">
-        <v>529.4873812679537</v>
+        <v>323.3556024088868</v>
       </c>
       <c r="E19" t="n">
-        <v>381.5742876855605</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="F19" t="n">
-        <v>234.6843401876502</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876502</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J19" t="n">
         <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693321</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
         <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
         <v>2020.132206020528</v>
@@ -5698,25 +5698,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.516429368669</v>
+        <v>2325.695673834655</v>
       </c>
       <c r="T19" t="n">
-        <v>2140.837647083051</v>
+        <v>2106.016891549037</v>
       </c>
       <c r="U19" t="n">
-        <v>1851.761433397778</v>
+        <v>1816.940677863764</v>
       </c>
       <c r="V19" t="n">
-        <v>1597.076945191891</v>
+        <v>1562.256189657877</v>
       </c>
       <c r="W19" t="n">
-        <v>1310.034615552077</v>
+        <v>1272.839019620916</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.045064654059</v>
+        <v>1044.849468722899</v>
       </c>
       <c r="Y19" t="n">
-        <v>861.252485510529</v>
+        <v>824.0568895793691</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
         <v>1948.261951965432</v>
@@ -5738,64 +5738,64 @@
         <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2220959708297</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608051</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251953</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128772</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S20" t="n">
         <v>4555.113898070876</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750194</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K21" t="n">
-        <v>570.9683475412852</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="L21" t="n">
-        <v>1061.700680385036</v>
+        <v>561.2235631333346</v>
       </c>
       <c r="M21" t="n">
-        <v>1653.719034637164</v>
+        <v>1153.241917385462</v>
       </c>
       <c r="N21" t="n">
-        <v>2005.899154770046</v>
+        <v>1775.337880784798</v>
       </c>
       <c r="O21" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q21" t="n">
         <v>2552.77562977024</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>867.841304851224</v>
+        <v>1098.385284034031</v>
       </c>
       <c r="C22" t="n">
-        <v>698.9051219233171</v>
+        <v>929.4491011061236</v>
       </c>
       <c r="D22" t="n">
-        <v>548.7884825109817</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E22" t="n">
-        <v>548.7884825109817</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F22" t="n">
-        <v>401.8985350130713</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G22" t="n">
-        <v>234.6843401876502</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J22" t="n">
         <v>171.7937461156343</v>
@@ -5914,46 +5914,46 @@
         <v>431.422473086198</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693321</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149097</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.526801863479</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.450588178206</v>
+        <v>2071.440215683396</v>
       </c>
       <c r="V22" t="n">
-        <v>1736.450588178206</v>
+        <v>1816.755727477509</v>
       </c>
       <c r="W22" t="n">
-        <v>1447.033418141245</v>
+        <v>1527.338557440548</v>
       </c>
       <c r="X22" t="n">
-        <v>1219.043867243228</v>
+        <v>1299.349006542531</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.2512880996979</v>
+        <v>1280.03374886427</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,7 +6005,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6020,16 +6020,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6078,7 +6078,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>800.500769464728</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121644</v>
+        <v>631.564586536821</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121644</v>
+        <v>631.564586536821</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121644</v>
+        <v>483.6514929544279</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,10 +6145,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>982.1492342949678</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851667</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572598</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449239</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154064</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6546,16 +6546,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770314</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491245</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>484.2179484367888</v>
+        <v>555.8158034133955</v>
       </c>
       <c r="E31" t="n">
-        <v>336.3048548543957</v>
+        <v>407.9027098310024</v>
       </c>
       <c r="F31" t="n">
-        <v>189.4149073564855</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750801</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072712</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400708</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121639</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121639</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138406</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703105</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263198</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>680.4481746984129</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860772</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>382.418441703684</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630033</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7157,22 +7157,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,13 +7251,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
         <v>1373.553594266881</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1057.955258982919</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>889.0190760550121</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>738.9024366426763</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>590.9893430602832</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>444.0993955623729</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>276.9032962772528</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038343</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W40" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.396302956689</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1239.603723813159</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,16 +7482,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
         <v>1072.713683962606</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356196</v>
+        <v>847.6442739835329</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>697.527634571197</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888039</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510507</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.77659230462</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.77659230462</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.787041406603</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.994462263073</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7679,16 +7679,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7734,19 +7734,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.899304487669</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597622</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038343</v>
@@ -7816,7 +7816,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
         <v>2035.089393279803</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614389</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179088</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>217.2966060337028</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L2" t="n">
-        <v>228.6644989728485</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M2" t="n">
-        <v>220.7405610680687</v>
+        <v>220.7405610680686</v>
       </c>
       <c r="N2" t="n">
         <v>218.7966417076723</v>
       </c>
       <c r="O2" t="n">
-        <v>206.3768508508745</v>
+        <v>221.4924930484428</v>
       </c>
       <c r="P2" t="n">
-        <v>210.9873633211545</v>
+        <v>226.1030055187227</v>
       </c>
       <c r="Q2" t="n">
         <v>207.1020630664798</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>140.7931400785684</v>
       </c>
       <c r="L3" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>131.1820324570575</v>
       </c>
       <c r="N3" t="n">
-        <v>126.2548690044839</v>
+        <v>126.8656020225675</v>
       </c>
       <c r="O3" t="n">
-        <v>139.7892608851222</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>134.7055623553959</v>
+        <v>134.7055623553958</v>
       </c>
       <c r="Q3" t="n">
-        <v>145.4817674914254</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,19 +8140,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>140.6111758919119</v>
+        <v>140.6111758919118</v>
       </c>
       <c r="M4" t="n">
-        <v>144.1418917422245</v>
+        <v>138.614519908309</v>
       </c>
       <c r="N4" t="n">
-        <v>132.5263080433238</v>
+        <v>133.1370410614074</v>
       </c>
       <c r="O4" t="n">
-        <v>144.6457779992314</v>
+        <v>144.6457779992313</v>
       </c>
       <c r="P4" t="n">
-        <v>130.0899244982092</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>165.1664233173506</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>196.290625043042</v>
+        <v>211.4062672406092</v>
       </c>
       <c r="L5" t="n">
-        <v>206.2413706430636</v>
+        <v>221.3570128406305</v>
       </c>
       <c r="M5" t="n">
-        <v>211.998841726055</v>
+        <v>212.6095747441371</v>
       </c>
       <c r="N5" t="n">
-        <v>211.1448205424201</v>
+        <v>206.6038956696112</v>
       </c>
       <c r="O5" t="n">
-        <v>213.6903974315708</v>
+        <v>198.5747552340012</v>
       </c>
       <c r="P5" t="n">
-        <v>219.4440974175842</v>
+        <v>204.3284552200147</v>
       </c>
       <c r="Q5" t="n">
-        <v>202.1015003995571</v>
+        <v>202.1015003995562</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>117.3799164437228</v>
       </c>
       <c r="K6" t="n">
-        <v>136.7923479989961</v>
+        <v>121.6767058014271</v>
       </c>
       <c r="L6" t="n">
-        <v>116.8189011768931</v>
+        <v>116.8189011768921</v>
       </c>
       <c r="M6" t="n">
-        <v>122.5635458714325</v>
+        <v>131.8853977862005</v>
       </c>
       <c r="N6" t="n">
-        <v>120.4217589737977</v>
+        <v>120.4217589737965</v>
       </c>
       <c r="O6" t="n">
-        <v>118.7787612048542</v>
+        <v>133.8944034024213</v>
       </c>
       <c r="P6" t="n">
-        <v>129.9744195257134</v>
+        <v>129.363686507629</v>
       </c>
       <c r="Q6" t="n">
-        <v>127.2034816052385</v>
+        <v>127.203481605238</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>137.5230314322077</v>
+        <v>129.4834501148681</v>
       </c>
       <c r="M7" t="n">
-        <v>132.8462950819313</v>
+        <v>140.8858763992694</v>
       </c>
       <c r="N7" t="n">
-        <v>129.9584464857562</v>
+        <v>129.9584464857556</v>
       </c>
       <c r="O7" t="n">
-        <v>141.7098314381772</v>
+        <v>141.7098314381767</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>144.4363991805478</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N10" t="n">
-        <v>154.1946371899306</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O10" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-1.031568468623973e-12</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04630632975121429</v>
+        <v>0.04630632975123383</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>319.7875575713027</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7508060364354</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>19.52880216911848</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>30.07542174292504</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>144.2950836742809</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7692741559437</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>88.6377402916228</v>
+        <v>88.63774029162288</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39744654408216</v>
+        <v>77.39744654408226</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2983355531412</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>273.3814952952935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.29152613728894</v>
+        <v>50.2915261372922</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.57833957387456</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>159.9715760687851</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>50.2915261372904</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>50.2915261372909</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>146.8659403797855</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>2.351091993174975</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>50.2915261372913</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>50.29152613728999</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.72609676594809</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>199.4625482506165</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>65.30341755403248</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.8202214113354</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>86.99395161137591</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>72.44497470121424</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>70.88187642683995</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>63.36835372228784</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>9.000252501564972</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.77391660562063</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194163</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>40.30478226780131</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,16 +25600,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>75.37549921168775</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.257951202386153</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>144.8013425629414</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>968326.3933101305</v>
+        <v>968326.3933101301</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>828522.0274007479</v>
+        <v>828522.0274007474</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>890877.0203469946</v>
+        <v>890877.0203469943</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>890877.0203469944</v>
+        <v>890877.0203469943</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>890877.0203469943</v>
+        <v>890877.0203469945</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895790.5312041672</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533674.7545222829</v>
+        <v>533674.754522283</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117837</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>484895.7193692109</v>
+        <v>484895.7193692106</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.8515647202</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="G2" t="n">
         <v>521741.85156472</v>
@@ -26335,7 +26335,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
@@ -26347,10 +26347,10 @@
         <v>524645.2897985037</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26366,25 +26366,25 @@
         <v>38812.54146551418</v>
       </c>
       <c r="C3" t="n">
-        <v>10488.95082542642</v>
+        <v>10488.9508254283</v>
       </c>
       <c r="D3" t="n">
-        <v>483415.5636695859</v>
+        <v>483415.5636695845</v>
       </c>
       <c r="E3" t="n">
-        <v>793478.2866439433</v>
+        <v>793478.2866439418</v>
       </c>
       <c r="F3" t="n">
-        <v>143842.6767526521</v>
+        <v>143842.6767526529</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.014195044670487e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744865</v>
+        <v>10818.91345744859</v>
       </c>
       <c r="J3" t="n">
         <v>3954.917087140521</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43635.40538208628</v>
+        <v>43635.40538208633</v>
       </c>
       <c r="M3" t="n">
-        <v>203900.6538174568</v>
+        <v>203900.6538174565</v>
       </c>
       <c r="N3" t="n">
-        <v>37819.64693133118</v>
+        <v>37819.64693133123</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.641531071072677e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>405707.8016084756</v>
       </c>
       <c r="C4" t="n">
-        <v>403216.1885850809</v>
+        <v>403216.1885850805</v>
       </c>
       <c r="D4" t="n">
-        <v>271884.222570767</v>
+        <v>271884.2225707669</v>
       </c>
       <c r="E4" t="n">
-        <v>8640.735835840542</v>
+        <v>8640.73583584054</v>
       </c>
       <c r="F4" t="n">
-        <v>8720.723770518933</v>
+        <v>8720.723770518931</v>
       </c>
       <c r="G4" t="n">
         <v>8720.723770518933</v>
@@ -26439,22 +26439,22 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744269</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744326</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744342</v>
+        <v>8727.256391744275</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26470,13 +26470,13 @@
         <v>35310.09452928908</v>
       </c>
       <c r="C5" t="n">
-        <v>35561.20217894755</v>
+        <v>35561.20217894759</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.98542938828</v>
+        <v>88006.98542938818</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53844.31691900399</v>
+        <v>53844.30770404454</v>
       </c>
       <c r="C6" t="n">
-        <v>84410.80882232919</v>
+        <v>84410.80882232732</v>
       </c>
       <c r="D6" t="n">
-        <v>-278608.4362401823</v>
+        <v>-278608.4362401806</v>
       </c>
       <c r="E6" t="n">
-        <v>-405230.2885399612</v>
+        <v>-405417.9094285851</v>
       </c>
       <c r="F6" t="n">
-        <v>269036.3225277108</v>
+        <v>268990.4175321442</v>
       </c>
       <c r="G6" t="n">
-        <v>412878.9992803629</v>
+        <v>412833.0942847967</v>
       </c>
       <c r="H6" t="n">
-        <v>412878.9992803629</v>
+        <v>412833.094284797</v>
       </c>
       <c r="I6" t="n">
-        <v>403976.5901254039</v>
+        <v>403941.8521999682</v>
       </c>
       <c r="J6" t="n">
-        <v>410840.5864957119</v>
+        <v>410805.8485702764</v>
       </c>
       <c r="K6" t="n">
-        <v>414795.5035828524</v>
+        <v>414760.7656574168</v>
       </c>
       <c r="L6" t="n">
-        <v>371160.0982007663</v>
+        <v>371125.3602753305</v>
       </c>
       <c r="M6" t="n">
-        <v>210894.8497653955</v>
+        <v>210860.1118399601</v>
       </c>
       <c r="N6" t="n">
-        <v>376975.8566515212</v>
+        <v>376941.1187260854</v>
       </c>
       <c r="O6" t="n">
-        <v>414795.5035828525</v>
+        <v>414760.7656574165</v>
       </c>
       <c r="P6" t="n">
-        <v>414795.5035828525</v>
+        <v>414760.7656574168</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>46.5399602447429</v>
+        <v>46.53996024474497</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.036521394729</v>
+        <v>1232.036521394728</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.11564219756826</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="C4" t="n">
         <v>15.11564219756824</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.733376035908</v>
+        <v>1005.733376035907</v>
       </c>
       <c r="F4" t="n">
+        <v>1160.145290326006</v>
+      </c>
+      <c r="G4" t="n">
         <v>1160.145290326007</v>
       </c>
-      <c r="G4" t="n">
-        <v>1160.145290326006</v>
-      </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26960,22 +26960,22 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>11.51869952561758</v>
+        <v>11.51869952561965</v>
       </c>
       <c r="D3" t="n">
-        <v>501.9299806681613</v>
+        <v>501.9299806681595</v>
       </c>
       <c r="E3" t="n">
-        <v>683.5665804818246</v>
+        <v>683.5665804818233</v>
       </c>
       <c r="F3" t="n">
-        <v>126.004527321657</v>
+        <v>126.0045273216579</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>9.934451625288148</v>
@@ -27009,28 +27009,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.11564219756826</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>172.4099449687514</v>
+        <v>172.4099449687516</v>
       </c>
       <c r="E4" t="n">
-        <v>818.2077888695882</v>
+        <v>818.2077888695868</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4119142900992</v>
+        <v>154.4119142900996</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="J4" t="n">
         <v>15.11564219756815</v>
@@ -27039,16 +27039,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.4099449687515</v>
+        <v>172.4099449687517</v>
       </c>
       <c r="M4" t="n">
-        <v>818.2077888695879</v>
+        <v>818.2077888695868</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4119142900994</v>
+        <v>154.4119142900996</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11564219756826</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.4099449687514</v>
+        <v>172.4099449687516</v>
       </c>
       <c r="M4" t="n">
-        <v>818.2077888695882</v>
+        <v>818.2077888695868</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4119142900992</v>
+        <v>154.4119142900996</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>348.2452297147763</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>366.8147278746935</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>391.7604035441432</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>191.7342644700277</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>125.909639487711</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>131.7553547457658</v>
       </c>
       <c r="G3" t="n">
-        <v>122.152546216171</v>
+        <v>122.1525462161711</v>
       </c>
       <c r="H3" t="n">
-        <v>96.39228490587618</v>
+        <v>96.39228490587621</v>
       </c>
       <c r="I3" t="n">
-        <v>73.48921957506928</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>80.36520170281133</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27512,7 +27512,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>210.8207840446256</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27558,7 +27558,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>73.77861423693014</v>
+        <v>75.39700723502406</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>65.75819068553822</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>159.3381564662112</v>
       </c>
       <c r="S4" t="n">
-        <v>209.4187626604723</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>212.5601112874675</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>339.5673994231147</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>337.5587121947361</v>
+        <v>337.558712194736</v>
       </c>
       <c r="I5" t="n">
-        <v>203.2628973399116</v>
+        <v>203.2628973399113</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>123.0008495014756</v>
+        <v>123.0008495014751</v>
       </c>
       <c r="S5" t="n">
-        <v>204.7566350371918</v>
+        <v>189.6409928396233</v>
       </c>
       <c r="T5" t="n">
-        <v>222.2768398114827</v>
+        <v>222.2768398114826</v>
       </c>
       <c r="U5" t="n">
         <v>251.3306852824311</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>122.1277701454933</v>
+        <v>137.2434123430616</v>
       </c>
       <c r="H6" t="n">
-        <v>96.15300022327799</v>
+        <v>96.15300022327796</v>
       </c>
       <c r="I6" t="n">
-        <v>85.95004145593175</v>
+        <v>85.95004145593161</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>93.94255417882633</v>
+        <v>78.82691198125782</v>
       </c>
       <c r="S6" t="n">
-        <v>169.8237679751917</v>
+        <v>156.5099103275736</v>
       </c>
       <c r="T6" t="n">
-        <v>199.7612360206243</v>
+        <v>199.7612360206242</v>
       </c>
       <c r="U6" t="n">
         <v>210.8191540399757</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>192.4591275558594</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27792,10 +27792,10 @@
         <v>161.4810072431878</v>
       </c>
       <c r="I7" t="n">
-        <v>152.9266357716909</v>
+        <v>152.1317668035975</v>
       </c>
       <c r="J7" t="n">
-        <v>72.31007446298378</v>
+        <v>72.31007446298354</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.01886705716996</v>
+        <v>64.01886705716966</v>
       </c>
       <c r="R7" t="n">
-        <v>173.5198398465056</v>
+        <v>173.5198398465054</v>
       </c>
       <c r="S7" t="n">
         <v>222.5540225650186</v>
       </c>
       <c r="T7" t="n">
-        <v>212.4713606517784</v>
+        <v>227.5870028493466</v>
       </c>
       <c r="U7" t="n">
         <v>286.3144516554832</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>224.9147864209443</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>203.4690111545266</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>384.7619123176198</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
@@ -27910,16 +27910,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>193.9188994094916</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510934</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121494</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897339</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27935,7 +27935,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>59.55621601093567</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714242</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
@@ -27986,19 +27986,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6587486719685</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310543</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715784</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098472</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>64.61205615750836</v>
+        <v>177.553270752349</v>
       </c>
       <c r="W10" t="n">
-        <v>109.2171874917662</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>38.18406822271751</v>
+        <v>38.18406822271731</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1870953175668055</v>
+        <v>0.1870953175668138</v>
       </c>
       <c r="H5" t="n">
-        <v>1.916089921031047</v>
+        <v>1.916089921031132</v>
       </c>
       <c r="I5" t="n">
-        <v>7.212992230494276</v>
+        <v>7.212992230494596</v>
       </c>
       <c r="J5" t="n">
-        <v>15.87948120933567</v>
+        <v>15.87948120933638</v>
       </c>
       <c r="K5" t="n">
-        <v>23.79922600193855</v>
+        <v>23.79922600193961</v>
       </c>
       <c r="L5" t="n">
-        <v>29.52504432692368</v>
+        <v>29.52504432692499</v>
       </c>
       <c r="M5" t="n">
-        <v>32.85230068070236</v>
+        <v>32.85230068070382</v>
       </c>
       <c r="N5" t="n">
-        <v>33.38388525173904</v>
+        <v>33.38388525174053</v>
       </c>
       <c r="O5" t="n">
-        <v>31.52345618768412</v>
+        <v>31.52345618768552</v>
       </c>
       <c r="P5" t="n">
-        <v>26.90454053525361</v>
+        <v>26.9045405352548</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.20418947489238</v>
+        <v>20.20418947489328</v>
       </c>
       <c r="R5" t="n">
-        <v>11.75262624210586</v>
+        <v>11.75262624210638</v>
       </c>
       <c r="S5" t="n">
-        <v>4.263434549053584</v>
+        <v>4.263434549053774</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8190097526486915</v>
+        <v>0.8190097526487278</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01496762540534444</v>
+        <v>0.0149676254053451</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1001048201490696</v>
+        <v>0.1001048201490741</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9668018156502254</v>
+        <v>0.9668018156502682</v>
       </c>
       <c r="I6" t="n">
-        <v>3.446591395483319</v>
+        <v>3.446591395483472</v>
       </c>
       <c r="J6" t="n">
-        <v>9.457710222943462</v>
+        <v>9.457710222943883</v>
       </c>
       <c r="K6" t="n">
-        <v>16.16473317293113</v>
+        <v>16.16473317293185</v>
       </c>
       <c r="L6" t="n">
-        <v>21.73547860298111</v>
+        <v>21.73547860298207</v>
       </c>
       <c r="M6" t="n">
-        <v>25.36427833338488</v>
+        <v>25.364278333386</v>
       </c>
       <c r="N6" t="n">
-        <v>26.03559530710386</v>
+        <v>26.03559530710502</v>
       </c>
       <c r="O6" t="n">
-        <v>23.81748323959026</v>
+        <v>23.81748323959132</v>
       </c>
       <c r="P6" t="n">
-        <v>19.11563008618506</v>
+        <v>19.11563008618591</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.778292480783</v>
+        <v>12.77829248078356</v>
       </c>
       <c r="R6" t="n">
-        <v>6.215279973816799</v>
+        <v>6.215279973817076</v>
       </c>
       <c r="S6" t="n">
-        <v>1.859403128646095</v>
+        <v>1.859403128646177</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4034926741973463</v>
+        <v>0.4034926741973642</v>
       </c>
       <c r="U6" t="n">
-        <v>0.006585843430859847</v>
+        <v>0.00658584343086014</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08392451847412653</v>
+        <v>0.08392451847413027</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7461652642517801</v>
+        <v>0.7461652642518132</v>
       </c>
       <c r="I7" t="n">
-        <v>2.52383915556737</v>
+        <v>2.523839155567482</v>
       </c>
       <c r="J7" t="n">
-        <v>5.933463456120745</v>
+        <v>5.933463456121009</v>
       </c>
       <c r="K7" t="n">
-        <v>9.750503146357607</v>
+        <v>9.75050314635804</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47728704659878</v>
+        <v>12.47728704659933</v>
       </c>
       <c r="M7" t="n">
-        <v>13.15554974590331</v>
+        <v>13.15554974590389</v>
       </c>
       <c r="N7" t="n">
-        <v>12.84274017704521</v>
+        <v>12.84274017704578</v>
       </c>
       <c r="O7" t="n">
-        <v>11.86234921123382</v>
+        <v>11.86234921123434</v>
       </c>
       <c r="P7" t="n">
-        <v>10.15028903436163</v>
+        <v>10.15028903436208</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.027533996956178</v>
+        <v>7.02753399695649</v>
       </c>
       <c r="R7" t="n">
-        <v>3.773551530663906</v>
+        <v>3.773551530664074</v>
       </c>
       <c r="S7" t="n">
-        <v>1.462575471953641</v>
+        <v>1.462575471953706</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3585865789349042</v>
+        <v>0.3585865789349201</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004577701007679635</v>
+        <v>0.004577701007679838</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L8" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U8" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I10" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276989</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M10" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952910638772775</v>
+        <v>4.952910638772771</v>
       </c>
       <c r="H11" t="n">
-        <v>50.7239960793317</v>
+        <v>50.72399607933166</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9470874012876</v>
+        <v>190.9470874012874</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3720993275413</v>
+        <v>420.3720993275409</v>
       </c>
       <c r="K11" t="n">
-        <v>630.028806666793</v>
+        <v>630.0288066667924</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6064456281355</v>
+        <v>781.6064456281348</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6877702004108</v>
+        <v>869.68777020041</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7602275528239</v>
+        <v>883.7602275528232</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5097223885272</v>
+        <v>834.5097223885264</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2347409938242</v>
+        <v>712.2347409938235</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8586287427739</v>
+        <v>534.8586287427735</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1232729128106</v>
+        <v>311.1232729128104</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8644511810347</v>
+        <v>112.8644511810346</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68136632122784</v>
+        <v>21.68136632122782</v>
       </c>
       <c r="U11" t="n">
-        <v>0.396232851101822</v>
+        <v>0.3962328511018216</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650040819603757</v>
+        <v>2.650040819603754</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59381528406786</v>
+        <v>25.59381528406784</v>
       </c>
       <c r="I12" t="n">
-        <v>91.24044049951532</v>
+        <v>91.24044049951523</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>193.7420600175599</v>
       </c>
       <c r="K12" t="n">
-        <v>427.9234774357523</v>
+        <v>427.9234774357519</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3959244494912</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>671.4599041601272</v>
+        <v>671.4599041601265</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2314498319437</v>
+        <v>689.2314498319431</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5121243028289</v>
+        <v>630.5121243028283</v>
       </c>
       <c r="P12" t="n">
-        <v>334.3980673042696</v>
+        <v>506.0415666838081</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>338.2753860252091</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22334592553466</v>
+        <v>49.22334592553461</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68152418077128</v>
+        <v>10.68152418077127</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743447907634051</v>
+        <v>0.1743447907634049</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.221705202515085</v>
+        <v>2.221705202515083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.7529789823614</v>
+        <v>19.75297898236138</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81273463563548</v>
+        <v>66.81273463563541</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0745578178165</v>
+        <v>157.0745578178163</v>
       </c>
       <c r="K13" t="n">
-        <v>258.121749892207</v>
+        <v>258.1217498922068</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3069716539246</v>
+        <v>330.3069716539242</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2623891542509</v>
+        <v>348.2623891542506</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9814879448768</v>
+        <v>339.9814879448764</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0279317154959</v>
+        <v>314.0279317154956</v>
       </c>
       <c r="P13" t="n">
-        <v>268.705145584188</v>
+        <v>268.7051455841877</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.037514730604</v>
+        <v>186.0375147306039</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89594483308733</v>
+        <v>99.89594483308723</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71826248383105</v>
+        <v>38.71826248383102</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492740410746269</v>
+        <v>9.49274041074626</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211839201371866</v>
+        <v>0.1211839201371865</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,7 +32069,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,16 +32081,16 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32318,22 +32318,22 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>302.8877650506832</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,43 +32543,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>611.6977534235651</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>487.0792071670522</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>233.9389431948335</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>368.6279838366855</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.11564219756826</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.11564219756826</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>15.11564219756826</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="N2" t="n">
-        <v>14.50490917948469</v>
+        <v>14.50490917948467</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>8.134585626962537</v>
       </c>
       <c r="N3" t="n">
-        <v>14.5049091794847</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="O3" t="n">
-        <v>15.11564219756826</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15.11564219756826</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.11564219756826</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.11564219756826</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="M4" t="n">
-        <v>15.11564219756826</v>
+        <v>9.588270363652777</v>
       </c>
       <c r="N4" t="n">
-        <v>14.50490917948469</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="O4" t="n">
-        <v>15.11564219756826</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.93019185472386</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="M5" t="n">
-        <v>14.50490917948468</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="N5" t="n">
-        <v>15.11564219756824</v>
+        <v>10.57471732476082</v>
       </c>
       <c r="O5" t="n">
-        <v>15.11564219756824</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>15.11564219756824</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8.711118896685605</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>15.11564219756824</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.79379028279908</v>
       </c>
       <c r="N6" t="n">
         <v>15.11564219756824</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>15.11564219756824</v>
       </c>
       <c r="P6" t="n">
-        <v>15.11564219756824</v>
+        <v>14.50490917948468</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,10 +35097,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>7.076060880229109</v>
+      </c>
+      <c r="M7" t="n">
         <v>15.11564219756824</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7.076060880229569</v>
       </c>
       <c r="N7" t="n">
         <v>15.11564219756824</v>
@@ -35109,7 +35109,7 @@
         <v>15.11564219756824</v>
       </c>
       <c r="P7" t="n">
-        <v>7.428848299255115</v>
+        <v>7.428848299255566</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O8" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065958</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996319</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P9" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062394</v>
+        <v>92.63945645062398</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880151</v>
+        <v>156.5956149270085</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061144</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N10" t="n">
-        <v>177.8598224851387</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O10" t="n">
-        <v>164.3820236732829</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P10" t="n">
         <v>116.8989542469472</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.326194800855</v>
+        <v>239.3261948008546</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9389556218125</v>
+        <v>409.9389556218119</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8400306581482</v>
+        <v>545.8400306581475</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3415369731381</v>
+        <v>639.3415369731373</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3471639562331</v>
+        <v>654.3471639562322</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4115109668404</v>
+        <v>604.4115109668396</v>
       </c>
       <c r="P11" t="n">
-        <v>481.0017452385546</v>
+        <v>481.001745238554</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5529388683244</v>
+        <v>312.552938868324</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53773509867852</v>
+        <v>95.53773509867824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>66.90443335089323</v>
       </c>
       <c r="K12" t="n">
-        <v>290.0820384613933</v>
+        <v>290.0820384613929</v>
       </c>
       <c r="L12" t="n">
-        <v>436.841544669617</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>529.3258702381088</v>
+        <v>529.3258702381081</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8897377486104</v>
+        <v>557.8897377486098</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9158798583844</v>
+        <v>487.9158798583838</v>
       </c>
       <c r="P12" t="n">
-        <v>200.4236598899393</v>
+        <v>372.0671592694779</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>198.2936119391875</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71537770114369</v>
+        <v>63.71537770114355</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8522580663242</v>
+        <v>235.852258066324</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8969969142407</v>
+        <v>357.8969969142404</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8462661160915</v>
+        <v>387.8462661160912</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1136603241054</v>
+        <v>384.113660324105</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6130596295356</v>
+        <v>338.6130596295353</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9837048490814</v>
+        <v>265.9837048490812</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87547147890966</v>
+        <v>99.87547147890949</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O15" t="n">
-        <v>279.758213872464</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>164.3333852708091</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>473.1433736436909</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>355.7374950837189</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>91.80490927281522</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>237.2862717533522</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
